--- a/teaching/traditional_assets/database/data/pakistan/pakistan_air_transport.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_air_transport.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0145</v>
+        <v>0.0278</v>
       </c>
       <c r="G2">
-        <v>-0.2145047169811321</v>
+        <v>0.003998919211024047</v>
       </c>
       <c r="H2">
-        <v>-0.2145047169811321</v>
+        <v>0.003998919211024047</v>
       </c>
       <c r="I2">
-        <v>-0.2344733983375311</v>
+        <v>-0.1128073493650365</v>
       </c>
       <c r="J2">
-        <v>-0.2344733983375311</v>
+        <v>-0.1128073493650365</v>
       </c>
       <c r="K2">
-        <v>-480.5</v>
+        <v>-323.7</v>
       </c>
       <c r="L2">
-        <v>-0.566627358490566</v>
+        <v>-0.4373142393947581</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,67 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.4369747899159664</v>
+      </c>
+      <c r="W2">
+        <v>0.1689986425811841</v>
       </c>
       <c r="X2">
-        <v>0.1377141803621101</v>
+        <v>1.019985182130581</v>
+      </c>
+      <c r="Y2">
+        <v>-0.850986539549397</v>
       </c>
       <c r="Z2">
-        <v>4.655063910143589</v>
+        <v>15.42083333333336</v>
       </c>
       <c r="AA2">
-        <v>-1.091488654489763</v>
+        <v>-1.739583333333336</v>
       </c>
       <c r="AB2">
-        <v>0.1077803121588258</v>
+        <v>0.119235985636019</v>
       </c>
       <c r="AC2">
-        <v>-1.199268966648589</v>
+        <v>-1.858819318969355</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2140.4</v>
       </c>
       <c r="AE2">
-        <v>182.1672089511318</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>182.1672089511318</v>
+        <v>2140.4</v>
       </c>
       <c r="AG2">
-        <v>182.1672089511318</v>
+        <v>2072.8</v>
       </c>
       <c r="AH2">
-        <v>0.4470720709527805</v>
+        <v>0.9325955296065531</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>-22.48319327731097</v>
       </c>
       <c r="AJ2">
-        <v>0.4470720709527805</v>
+        <v>0.9305499438832773</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>-12.73218673218675</v>
       </c>
       <c r="AL2">
-        <v>150.5</v>
+        <v>210.9</v>
       </c>
       <c r="AM2">
-        <v>149.998</v>
+        <v>210.291</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>-68.38338658146965</v>
       </c>
       <c r="AO2">
-        <v>-1.573421926910299</v>
+        <v>-0.3959222380275011</v>
       </c>
       <c r="AP2">
-        <v>-1.694578687917506</v>
+        <v>-66.22364217252397</v>
       </c>
       <c r="AQ2">
-        <v>-1.578687715836211</v>
+        <v>-0.3970688236776657</v>
       </c>
     </row>
     <row r="3">
@@ -713,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0145</v>
+        <v>0.0278</v>
       </c>
       <c r="G3">
-        <v>-0.2145047169811321</v>
+        <v>0.003998919211024047</v>
       </c>
       <c r="H3">
-        <v>-0.2145047169811321</v>
+        <v>0.003998919211024047</v>
       </c>
       <c r="I3">
-        <v>-0.2344733983375311</v>
+        <v>-0.1128073493650365</v>
       </c>
       <c r="J3">
-        <v>-0.2344733983375311</v>
+        <v>-0.1128073493650365</v>
       </c>
       <c r="K3">
-        <v>-480.5</v>
+        <v>-323.7</v>
       </c>
       <c r="L3">
-        <v>-0.566627358490566</v>
+        <v>-0.4373142393947581</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,67 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.4369747899159664</v>
+      </c>
+      <c r="W3">
+        <v>0.1689986425811841</v>
       </c>
       <c r="X3">
-        <v>0.1377141803621101</v>
+        <v>1.019985182130581</v>
+      </c>
+      <c r="Y3">
+        <v>-0.850986539549397</v>
       </c>
       <c r="Z3">
-        <v>4.655063910143589</v>
+        <v>15.42083333333336</v>
       </c>
       <c r="AA3">
-        <v>-1.091488654489763</v>
+        <v>-1.739583333333336</v>
       </c>
       <c r="AB3">
-        <v>0.1077803121588258</v>
+        <v>0.119235985636019</v>
       </c>
       <c r="AC3">
-        <v>-1.199268966648589</v>
+        <v>-1.858819318969355</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2140.4</v>
       </c>
       <c r="AE3">
-        <v>182.1672089511318</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>182.1672089511318</v>
+        <v>2140.4</v>
       </c>
       <c r="AG3">
-        <v>182.1672089511318</v>
+        <v>2072.8</v>
       </c>
       <c r="AH3">
-        <v>0.4470720709527805</v>
+        <v>0.9325955296065531</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>-22.48319327731097</v>
       </c>
       <c r="AJ3">
-        <v>0.4470720709527805</v>
+        <v>0.9305499438832773</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>-12.73218673218675</v>
       </c>
       <c r="AL3">
-        <v>150.5</v>
+        <v>210.9</v>
       </c>
       <c r="AM3">
-        <v>149.998</v>
+        <v>210.291</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>-68.38338658146965</v>
       </c>
       <c r="AO3">
-        <v>-1.573421926910299</v>
+        <v>-0.3959222380275011</v>
       </c>
       <c r="AP3">
-        <v>-1.694578687917506</v>
+        <v>-66.22364217252397</v>
       </c>
       <c r="AQ3">
-        <v>-1.578687715836211</v>
+        <v>-0.3970688236776657</v>
       </c>
     </row>
   </sheetData>
